--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Cancel_SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Cancel_SendMoney.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="78">
   <si>
     <t>Case</t>
   </si>
@@ -41,21 +41,9 @@
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
-    <t>Your scheduled payments have been cancelled successfully</t>
-  </si>
-  <si>
-    <t>0059101010060341</t>
-  </si>
-  <si>
     <t>cancel_date</t>
   </si>
   <si>
-    <t>As a user I want to verify cancelling a single send money scheduled payment</t>
-  </si>
-  <si>
-    <t>24-10-2020</t>
-  </si>
-  <si>
     <t>Select TM.SCHEDULED_TRAN_MASTER_ID from DC_SCHEDULED_TRAN_MASTER TM INNER JOIN DC_FUND_TRANSFER_BENEFICIARY LM ON TM.FUND_TRANSFER_BENEFICIARY_ID = LM.FUND_TRANSFER_BENEFICIARY_ID where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and LM.ACCOUNT_NO = '{account_number}'</t>
   </si>
   <si>
@@ -72,13 +60,211 @@
   </si>
   <si>
     <t>schedule_status_query</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>23457913894303</t>
+  </si>
+  <si>
+    <t>08497900068901</t>
+  </si>
+  <si>
+    <t>00277900350711</t>
+  </si>
+  <si>
+    <t>07867901527301</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Details are provided with all valid details Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Details are provided with all valid details iban Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Bene Account is LOAN Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Bene Account is FCY Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Bene Account is MONEY CLUB Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Bene Account is BRANCHLESS Konnect Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Daily Limit Exceeds on HBL Acc Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Daily Limit Exceeds on IBFT Acc Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when Senders have INSUFFICIENT BALANCE Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>00147900721001</t>
+  </si>
+  <si>
+    <t>PK50HABB0013227900983503</t>
+  </si>
+  <si>
+    <t>07867916249703</t>
+  </si>
+  <si>
+    <t>02800320004636</t>
+  </si>
+  <si>
+    <t>0605060510946074</t>
+  </si>
+  <si>
+    <t>01719020101</t>
+  </si>
+  <si>
+    <t>100605050300201</t>
+  </si>
+  <si>
+    <t>0300777261006679</t>
+  </si>
+  <si>
+    <t>PK27BAHL1083009501262002</t>
+  </si>
+  <si>
+    <t>PK97BAHL1108009500890601</t>
+  </si>
+  <si>
+    <t>PK48BAHL0070009500457801</t>
+  </si>
+  <si>
+    <t>22667230559903</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>12497900564101</t>
+  </si>
+  <si>
+    <t>03334900125</t>
+  </si>
+  <si>
+    <t>12757900758503</t>
+  </si>
+  <si>
+    <t>00020000011005730</t>
+  </si>
+  <si>
+    <t>22837900580401</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when invalid HBL Acc is provided Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>22837900584582</t>
+  </si>
+  <si>
+    <t>Your scheduled payment has been cancelled successfully</t>
+  </si>
+  <si>
+    <t>07867915677101</t>
+  </si>
+  <si>
+    <t>14900011079803</t>
+  </si>
+  <si>
+    <t>00476001511601</t>
+  </si>
+  <si>
+    <t>09470201056703</t>
+  </si>
+  <si>
+    <t>24460094904501</t>
+  </si>
+  <si>
+    <t>15647900453401</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT Acc Daily Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT Acc Weekly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT Acc Fortnightly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT Acc Monthly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT Acc Quarterly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of HBL Acc Daily Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of HBL Acc Weekly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of HBL Acc Fortnightly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of HBL Acc Monthly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of HBL Acc Quarterly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT via IBAN Acc Daily Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT via IBAN Acc Weekly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT via IBAN Acc Fortnightly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT via IBAN Acc Monthly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule when given valid data of IBFT via IBAN Acc Quarterly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule the FCY USD Daily Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule the Branchless 03334900125 Daily Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule the Receiver Account Blocked Daily Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule Send Money Bene of other HBL Daily Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule Send Money Bene of other HBL Weekly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule Send Money Bene of other HBL Fortnightly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule Send Money Bene of other HBL Monthly Mng_Send_Cancel</t>
+  </si>
+  <si>
+    <t>Verify Cancel Schedule Send Money Bene of other HBL Quarterly Mng_Send_Cancel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,10 +273,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,10 +307,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,74 +595,994 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
